--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222121.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 10:19:08</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:21:22</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5792,7 +5792,7 @@
     <t>GODOFREDO VIANA</t>
   </si>
   <si>
-    <t>14.246.470,00</t>
+    <t>13.913.811,00</t>
   </si>
   <si>
     <t>Belíssima</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222121.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224921.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:21:22</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:49:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224921.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225821.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:49:41</t>
+    <t>Informação extraída do SIGBM: 21/12/2022 - 11:58:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225821.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 21/12/2022 - 11:58:20</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:16:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:16:01</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:30:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:30:05</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:39:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:39:46</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:48:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:48:01</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:57:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:57:05</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:15:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:15:12</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:34:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:34:41</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:45:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:45:23</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:53:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:53:58</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:02:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:02:46</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:21:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:21:56</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:30:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:30:45</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:39:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:39:56</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:48:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:48:32</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:57:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:57:22</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:16:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:16:36</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:35:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:35:00</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:46:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:46:41</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:55:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:55:21</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:06:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:06:00</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:22:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:22:22</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:31:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:31:47</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:39:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:39:50</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:48:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:48:41</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:57:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:57:29</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:15:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:15:32</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:33:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:33:45</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:44:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:44:45</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:53:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:53:33</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:02:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:02:48</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:21:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:21:06</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:30:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:30:46</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:40:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:40:03</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:49:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:49:25</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:58:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:58:15</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:14:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:14:49</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:32:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:32:05</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:42:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:42:49</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:51:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:51:55</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:00:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:00:18</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:16:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:16:39</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:26:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:26:32</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:35:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:35:43</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:44:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:44:33</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:53:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:53:25</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 09:02:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 09:02:50</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 09:40:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 09:40:29</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 10:03:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 10:03:20</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 10:28:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 10:28:53</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 10:39:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 10:39:55</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 10:48:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 10:48:13</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 10:57:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 10:57:08</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:11:44</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9395,7 +9395,7 @@
     <t>-56°11'16.840"</t>
   </si>
   <si>
-    <t>4.810.000,00</t>
+    <t>4.860.000,00</t>
   </si>
   <si>
     <t>LD6 - Lagoa de Disposição 6</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:11:44</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:27:41</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9371,7 +9371,7 @@
     <t>-56°10'00.500"</t>
   </si>
   <si>
-    <t>2.400.000,00</t>
+    <t>2.420.000,00</t>
   </si>
   <si>
     <t>LD2 - Lagoa de Disposição 02</t>
@@ -9383,7 +9383,7 @@
     <t>-56°10'25.700"</t>
   </si>
   <si>
-    <t>2.270.000,00</t>
+    <t>2.290.000,00</t>
   </si>
   <si>
     <t>LD3 - Lagoa de Disposição 03</t>
@@ -9428,7 +9428,7 @@
     <t>-56°10'32.800"</t>
   </si>
   <si>
-    <t>4.310.000,00</t>
+    <t>4.380.000,00</t>
   </si>
   <si>
     <t>Leste</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
-  <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:27:41</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
+  <si>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:37:35</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9417,6 +9417,9 @@
   </si>
   <si>
     <t>-56°12'06.600"</t>
+  </si>
+  <si>
+    <t>2.850.000,00</t>
   </si>
   <si>
     <t>LE - Lagoa de Espessamento</t>
@@ -53672,7 +53675,7 @@
         <v>18.4</v>
       </c>
       <c r="L665" s="0" t="s">
-        <v>1066</v>
+        <v>3135</v>
       </c>
       <c r="M665" s="0" t="s">
         <v>44</v>
@@ -53704,7 +53707,7 @@
         <v>9273</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>3092</v>
@@ -53713,10 +53716,10 @@
         <v>3093</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="G666" s="0" t="s">
         <v>26</v>
@@ -53734,7 +53737,7 @@
         <v>11.5</v>
       </c>
       <c r="L666" s="0" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="M666" s="0" t="s">
         <v>44</v>
@@ -53766,25 +53769,25 @@
         <v>9605</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>699</v>
       </c>
       <c r="H667" s="0" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="I667" s="0" t="s">
         <v>701</v>
@@ -53796,7 +53799,7 @@
         <v>30</v>
       </c>
       <c r="L667" s="0" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="M667" s="0" t="s">
         <v>44</v>
@@ -53828,25 +53831,25 @@
         <v>9980</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="F668" s="0" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="G668" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H668" s="0" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="I668" s="0" t="s">
         <v>28</v>
@@ -53858,7 +53861,7 @@
         <v>5</v>
       </c>
       <c r="L668" s="0" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="M668" s="0" t="s">
         <v>226</v>
@@ -53890,19 +53893,19 @@
         <v>8396</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="D669" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="F669" s="0" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="G669" s="0" t="s">
         <v>26</v>
@@ -53920,7 +53923,7 @@
         <v>2</v>
       </c>
       <c r="L669" s="0" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="M669" s="0" t="s">
         <v>85</v>
@@ -53952,19 +53955,19 @@
         <v>9492</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="F670" s="0" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G670" s="0" t="s">
         <v>26</v>
@@ -53982,7 +53985,7 @@
         <v>6</v>
       </c>
       <c r="L670" s="0" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="M670" s="0" t="s">
         <v>85</v>
@@ -54014,7 +54017,7 @@
         <v>9417</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>298</v>
@@ -54023,10 +54026,10 @@
         <v>199</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="G671" s="0" t="s">
         <v>26</v>
@@ -54076,7 +54079,7 @@
         <v>8475</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>1964</v>
@@ -54085,10 +54088,10 @@
         <v>199</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="G672" s="0" t="s">
         <v>26</v>
@@ -54106,7 +54109,7 @@
         <v>18</v>
       </c>
       <c r="L672" s="0" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="M672" s="0" t="s">
         <v>85</v>
@@ -54138,7 +54141,7 @@
         <v>9470</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>1964</v>
@@ -54147,10 +54150,10 @@
         <v>199</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="G673" s="0" t="s">
         <v>26</v>
@@ -54168,7 +54171,7 @@
         <v>13</v>
       </c>
       <c r="L673" s="0" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="M673" s="0" t="s">
         <v>85</v>
@@ -54200,7 +54203,7 @@
         <v>8303</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>52</v>
@@ -54209,10 +54212,10 @@
         <v>53</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>26</v>
@@ -54230,7 +54233,7 @@
         <v>38.55</v>
       </c>
       <c r="L674" s="0" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="M674" s="0" t="s">
         <v>85</v>
@@ -54262,7 +54265,7 @@
         <v>8304</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>52</v>
@@ -54271,10 +54274,10 @@
         <v>53</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="G675" s="0" t="s">
         <v>26</v>
@@ -54292,7 +54295,7 @@
         <v>97.92</v>
       </c>
       <c r="L675" s="0" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="M675" s="0" t="s">
         <v>85</v>
@@ -54324,7 +54327,7 @@
         <v>9437</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>52</v>
@@ -54333,10 +54336,10 @@
         <v>53</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="G676" s="0" t="s">
         <v>26</v>
@@ -54354,7 +54357,7 @@
         <v>56</v>
       </c>
       <c r="L676" s="0" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="M676" s="0" t="s">
         <v>44</v>
@@ -54386,7 +54389,7 @@
         <v>8938</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>309</v>
@@ -54395,16 +54398,16 @@
         <v>310</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H677" s="0" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="I677" s="0" t="s">
         <v>120</v>
@@ -54416,7 +54419,7 @@
         <v>37</v>
       </c>
       <c r="L677" s="0" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="M677" s="0" t="s">
         <v>85</v>
@@ -54448,7 +54451,7 @@
         <v>8305</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>52</v>
@@ -54457,16 +54460,16 @@
         <v>53</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H678" s="0" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="I678" s="0" t="s">
         <v>120</v>
@@ -54478,7 +54481,7 @@
         <v>15.4</v>
       </c>
       <c r="L678" s="0" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="M678" s="0" t="s">
         <v>44</v>
@@ -54510,7 +54513,7 @@
         <v>8307</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>52</v>
@@ -54519,16 +54522,16 @@
         <v>53</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="G679" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H679" s="0" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="I679" s="0" t="s">
         <v>120</v>
@@ -54540,7 +54543,7 @@
         <v>18.7</v>
       </c>
       <c r="L679" s="0" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="M679" s="0" t="s">
         <v>44</v>
@@ -54572,25 +54575,25 @@
         <v>7471</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>699</v>
       </c>
       <c r="H680" s="0" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="I680" s="0" t="s">
         <v>701</v>
@@ -54602,7 +54605,7 @@
         <v>28</v>
       </c>
       <c r="L680" s="0" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="M680" s="0" t="s">
         <v>44</v>
@@ -54634,19 +54637,19 @@
         <v>9750</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="D681" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>26</v>
@@ -54664,7 +54667,7 @@
         <v>18.23</v>
       </c>
       <c r="L681" s="0" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="M681" s="0" t="s">
         <v>226</v>
@@ -54696,19 +54699,19 @@
         <v>9692</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="G682" s="0" t="s">
         <v>26</v>
@@ -54726,7 +54729,7 @@
         <v>0.5</v>
       </c>
       <c r="L682" s="0" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="M682" s="0" t="s">
         <v>44</v>
@@ -54758,25 +54761,25 @@
         <v>9412</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="G683" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H683" s="0" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I683" s="0" t="s">
         <v>70</v>
@@ -54820,25 +54823,25 @@
         <v>9378</v>
       </c>
       <c r="B684" s="0" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D684" s="0" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E684" s="0" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F684" s="0" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G684" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H684" s="0" t="s">
         <v>3222</v>
-      </c>
-      <c r="C684" s="0" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D684" s="0" t="s">
-        <v>3218</v>
-      </c>
-      <c r="E684" s="0" t="s">
-        <v>3223</v>
-      </c>
-      <c r="F684" s="0" t="s">
-        <v>3224</v>
-      </c>
-      <c r="G684" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H684" s="0" t="s">
-        <v>3221</v>
       </c>
       <c r="I684" s="0" t="s">
         <v>70</v>
@@ -54850,7 +54853,7 @@
         <v>7</v>
       </c>
       <c r="L684" s="0" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="M684" s="0" t="s">
         <v>147</v>
@@ -54882,19 +54885,19 @@
         <v>9364</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="F685" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="G685" s="0" t="s">
         <v>26</v>
@@ -54906,13 +54909,13 @@
         <v>70</v>
       </c>
       <c r="J685" s="0" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="K685" s="0">
         <v>12.75</v>
       </c>
       <c r="L685" s="0" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="M685" s="0" t="s">
         <v>44</v>
@@ -54944,19 +54947,19 @@
         <v>10005</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="F686" s="0" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="G686" s="0" t="s">
         <v>26</v>
@@ -55003,19 +55006,19 @@
         <v>10010</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C687" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>3237</v>
+      </c>
+      <c r="F687" s="0" t="s">
         <v>3238</v>
-      </c>
-      <c r="D687" s="0" t="s">
-        <v>3239</v>
-      </c>
-      <c r="E687" s="0" t="s">
-        <v>3236</v>
-      </c>
-      <c r="F687" s="0" t="s">
-        <v>3237</v>
       </c>
       <c r="G687" s="0" t="s">
         <v>26</v>
@@ -55062,7 +55065,7 @@
         <v>9129</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C688" s="0" t="s">
         <v>2206</v>
@@ -55071,16 +55074,16 @@
         <v>2207</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="F688" s="0" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="G688" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H688" s="0" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="I688" s="0" t="s">
         <v>663</v>
@@ -55092,7 +55095,7 @@
         <v>5</v>
       </c>
       <c r="L688" s="0" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="M688" s="0" t="s">
         <v>44</v>
@@ -55124,7 +55127,7 @@
         <v>9130</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C689" s="0" t="s">
         <v>2206</v>
@@ -55133,16 +55136,16 @@
         <v>2207</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="F689" s="0" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="G689" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H689" s="0" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="I689" s="0" t="s">
         <v>663</v>
@@ -55186,7 +55189,7 @@
         <v>9131</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>2206</v>
@@ -55195,16 +55198,16 @@
         <v>2207</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="F690" s="0" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="G690" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H690" s="0" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="I690" s="0" t="s">
         <v>663</v>
@@ -55216,7 +55219,7 @@
         <v>8.4</v>
       </c>
       <c r="L690" s="0" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="M690" s="0" t="s">
         <v>44</v>
@@ -55248,7 +55251,7 @@
         <v>8451</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C691" s="0" t="s">
         <v>52</v>
@@ -55257,10 +55260,10 @@
         <v>53</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="F691" s="0" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="G691" s="0" t="s">
         <v>26</v>
@@ -55278,7 +55281,7 @@
         <v>16.13</v>
       </c>
       <c r="L691" s="0" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="M691" s="0" t="s">
         <v>44</v>
@@ -55310,7 +55313,7 @@
         <v>8453</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="C692" s="0" t="s">
         <v>52</v>
@@ -55319,10 +55322,10 @@
         <v>53</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="G692" s="0" t="s">
         <v>26</v>
@@ -55340,7 +55343,7 @@
         <v>21</v>
       </c>
       <c r="L692" s="0" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="M692" s="0" t="s">
         <v>44</v>
@@ -55372,19 +55375,19 @@
         <v>8586</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="G693" s="0" t="s">
         <v>26</v>
@@ -55402,7 +55405,7 @@
         <v>3</v>
       </c>
       <c r="L693" s="0" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="M693" s="0" t="s">
         <v>44</v>
@@ -55434,19 +55437,19 @@
         <v>8604</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="G694" s="0" t="s">
         <v>26</v>
@@ -55464,7 +55467,7 @@
         <v>2</v>
       </c>
       <c r="L694" s="0" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="M694" s="0" t="s">
         <v>44</v>
@@ -55496,19 +55499,19 @@
         <v>8605</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E695" s="0" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="G695" s="0" t="s">
         <v>26</v>
@@ -55526,7 +55529,7 @@
         <v>3</v>
       </c>
       <c r="L695" s="0" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="M695" s="0" t="s">
         <v>44</v>
@@ -55558,19 +55561,19 @@
         <v>8785</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="G696" s="0" t="s">
         <v>26</v>
@@ -55588,7 +55591,7 @@
         <v>1</v>
       </c>
       <c r="L696" s="0" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="M696" s="0" t="s">
         <v>44</v>
@@ -55620,7 +55623,7 @@
         <v>9269</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C697" s="0" t="s">
         <v>3021</v>
@@ -55629,10 +55632,10 @@
         <v>3022</v>
       </c>
       <c r="E697" s="0" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="G697" s="0" t="s">
         <v>26</v>
@@ -55650,7 +55653,7 @@
         <v>52</v>
       </c>
       <c r="L697" s="0" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="M697" s="0" t="s">
         <v>226</v>
@@ -55682,25 +55685,25 @@
         <v>9081</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="E698" s="0" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="G698" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H698" s="0" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="I698" s="0" t="s">
         <v>610</v>
@@ -55712,7 +55715,7 @@
         <v>5</v>
       </c>
       <c r="L698" s="0" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="M698" s="0" t="s">
         <v>44</v>
@@ -55744,7 +55747,7 @@
         <v>9414</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>1615</v>
@@ -55753,10 +55756,10 @@
         <v>199</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="G699" s="0" t="s">
         <v>26</v>
@@ -55774,7 +55777,7 @@
         <v>17</v>
       </c>
       <c r="L699" s="0" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="M699" s="0" t="s">
         <v>85</v>
@@ -55806,19 +55809,19 @@
         <v>10045</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="D700" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>26</v>
@@ -55865,7 +55868,7 @@
         <v>8876</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C701" s="0" t="s">
         <v>541</v>
@@ -55874,10 +55877,10 @@
         <v>542</v>
       </c>
       <c r="E701" s="0" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="G701" s="0" t="s">
         <v>26</v>
@@ -55895,7 +55898,7 @@
         <v>6</v>
       </c>
       <c r="L701" s="0" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="M701" s="0" t="s">
         <v>44</v>
@@ -55927,7 +55930,7 @@
         <v>9994</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C702" s="0" t="s">
         <v>541</v>
@@ -55936,10 +55939,10 @@
         <v>542</v>
       </c>
       <c r="E702" s="0" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="G702" s="0" t="s">
         <v>26</v>
@@ -55989,7 +55992,7 @@
         <v>8555</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>1710</v>
@@ -55998,10 +56001,10 @@
         <v>1711</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="G703" s="0" t="s">
         <v>26</v>
@@ -56019,7 +56022,7 @@
         <v>19</v>
       </c>
       <c r="L703" s="0" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="M703" s="0" t="s">
         <v>44</v>
@@ -56051,7 +56054,7 @@
         <v>8372</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C704" s="0" t="s">
         <v>52</v>
@@ -56060,10 +56063,10 @@
         <v>53</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="G704" s="0" t="s">
         <v>26</v>
@@ -56081,7 +56084,7 @@
         <v>23.2</v>
       </c>
       <c r="L704" s="0" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="M704" s="0" t="s">
         <v>85</v>
@@ -56113,7 +56116,7 @@
         <v>8206</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C705" s="0" t="s">
         <v>52</v>
@@ -56122,10 +56125,10 @@
         <v>53</v>
       </c>
       <c r="E705" s="0" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="G705" s="0" t="s">
         <v>26</v>
@@ -56143,7 +56146,7 @@
         <v>11.9</v>
       </c>
       <c r="L705" s="0" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="M705" s="0" t="s">
         <v>85</v>
@@ -56175,19 +56178,19 @@
         <v>9803</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D706" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="G706" s="0" t="s">
         <v>26</v>
@@ -56237,19 +56240,19 @@
         <v>9733</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="D707" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="G707" s="0" t="s">
         <v>26</v>
@@ -56267,7 +56270,7 @@
         <v>9</v>
       </c>
       <c r="L707" s="0" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="M707" s="0" t="s">
         <v>226</v>
@@ -56299,7 +56302,7 @@
         <v>8373</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C708" s="0" t="s">
         <v>52</v>
@@ -56308,10 +56311,10 @@
         <v>53</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="F708" s="0" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="G708" s="0" t="s">
         <v>26</v>
@@ -56329,7 +56332,7 @@
         <v>58.8</v>
       </c>
       <c r="L708" s="0" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="M708" s="0" t="s">
         <v>44</v>
@@ -56361,25 +56364,25 @@
         <v>9050</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="G709" s="0" t="s">
         <v>699</v>
       </c>
       <c r="H709" s="0" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="I709" s="0" t="s">
         <v>701</v>
@@ -56391,7 +56394,7 @@
         <v>27</v>
       </c>
       <c r="L709" s="0" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="M709" s="0" t="s">
         <v>85</v>
@@ -56423,7 +56426,7 @@
         <v>9990</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="C710" s="0" t="s">
         <v>52</v>
@@ -56482,7 +56485,7 @@
         <v>8776</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C711" s="0" t="s">
         <v>1313</v>
@@ -56491,10 +56494,10 @@
         <v>1314</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="G711" s="0" t="s">
         <v>26</v>
@@ -56512,7 +56515,7 @@
         <v>48</v>
       </c>
       <c r="L711" s="0" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="M711" s="0" t="s">
         <v>44</v>
@@ -56544,7 +56547,7 @@
         <v>9911</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="C712" s="0" t="s">
         <v>1697</v>
@@ -56603,7 +56606,7 @@
         <v>9500</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="C713" s="0" t="s">
         <v>1313</v>
@@ -56612,10 +56615,10 @@
         <v>1314</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="G713" s="0" t="s">
         <v>26</v>
@@ -56630,7 +56633,7 @@
         <v>18.05</v>
       </c>
       <c r="L713" s="0" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="M713" s="0" t="s">
         <v>44</v>
@@ -56662,19 +56665,19 @@
         <v>9398</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E714" s="0" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F714" s="0" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="G714" s="0" t="s">
         <v>26</v>
@@ -56692,7 +56695,7 @@
         <v>3</v>
       </c>
       <c r="L714" s="0" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="M714" s="0" t="s">
         <v>85</v>
@@ -56724,19 +56727,19 @@
         <v>8460</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D715" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="G715" s="0" t="s">
         <v>26</v>
@@ -56786,25 +56789,25 @@
         <v>9034</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="G716" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H716" s="0" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="I716" s="0" t="s">
         <v>70</v>
@@ -56816,7 +56819,7 @@
         <v>7</v>
       </c>
       <c r="L716" s="0" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="M716" s="0" t="s">
         <v>44</v>
@@ -56848,19 +56851,19 @@
         <v>9400</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E717" s="0" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="G717" s="0" t="s">
         <v>26</v>
@@ -56878,7 +56881,7 @@
         <v>20</v>
       </c>
       <c r="L717" s="0" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="M717" s="0" t="s">
         <v>85</v>
@@ -56910,25 +56913,25 @@
         <v>9154</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="G718" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H718" s="0" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="I718" s="0" t="s">
         <v>610</v>
@@ -56940,7 +56943,7 @@
         <v>3</v>
       </c>
       <c r="L718" s="0" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="M718" s="0" t="s">
         <v>44</v>
@@ -56972,7 +56975,7 @@
         <v>9441</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C719" s="0" t="s">
         <v>716</v>
@@ -56981,10 +56984,10 @@
         <v>717</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="G719" s="0" t="s">
         <v>26</v>
@@ -57002,7 +57005,7 @@
         <v>5</v>
       </c>
       <c r="L719" s="0" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="M719" s="0" t="s">
         <v>226</v>
@@ -57034,7 +57037,7 @@
         <v>9442</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C720" s="0" t="s">
         <v>716</v>
@@ -57043,10 +57046,10 @@
         <v>717</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="G720" s="0" t="s">
         <v>26</v>
@@ -57064,7 +57067,7 @@
         <v>5</v>
       </c>
       <c r="L720" s="0" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="M720" s="0" t="s">
         <v>226</v>
@@ -57096,7 +57099,7 @@
         <v>9440</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="C721" s="0" t="s">
         <v>716</v>
@@ -57105,10 +57108,10 @@
         <v>717</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="G721" s="0" t="s">
         <v>26</v>
@@ -57126,7 +57129,7 @@
         <v>4</v>
       </c>
       <c r="L721" s="0" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="M721" s="0" t="s">
         <v>226</v>
@@ -57158,7 +57161,7 @@
         <v>8201</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="C722" s="0" t="s">
         <v>52</v>
@@ -57167,10 +57170,10 @@
         <v>53</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="G722" s="0" t="s">
         <v>26</v>
@@ -57220,7 +57223,7 @@
         <v>8775</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="C723" s="0" t="s">
         <v>36</v>
@@ -57229,10 +57232,10 @@
         <v>37</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="G723" s="0" t="s">
         <v>26</v>
@@ -57250,7 +57253,7 @@
         <v>13.5</v>
       </c>
       <c r="L723" s="0" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="M723" s="0" t="s">
         <v>44</v>
@@ -57282,7 +57285,7 @@
         <v>8379</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="C724" s="0" t="s">
         <v>52</v>
@@ -57291,10 +57294,10 @@
         <v>53</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>26</v>
@@ -57344,7 +57347,7 @@
         <v>8406</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C725" s="0" t="s">
         <v>52</v>
@@ -57353,10 +57356,10 @@
         <v>53</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="G725" s="0" t="s">
         <v>26</v>
@@ -57374,7 +57377,7 @@
         <v>7</v>
       </c>
       <c r="L725" s="0" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="M725" s="0" t="s">
         <v>44</v>
@@ -57406,7 +57409,7 @@
         <v>8200</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C726" s="0" t="s">
         <v>52</v>
@@ -57415,10 +57418,10 @@
         <v>53</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="G726" s="0" t="s">
         <v>26</v>
@@ -57468,7 +57471,7 @@
         <v>8407</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="C727" s="0" t="s">
         <v>52</v>
@@ -57477,10 +57480,10 @@
         <v>53</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="F727" s="0" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="G727" s="0" t="s">
         <v>26</v>
@@ -57498,7 +57501,7 @@
         <v>10.5</v>
       </c>
       <c r="L727" s="0" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="M727" s="0" t="s">
         <v>85</v>
@@ -57530,7 +57533,7 @@
         <v>8199</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="C728" s="0" t="s">
         <v>52</v>
@@ -57539,10 +57542,10 @@
         <v>53</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="G728" s="0" t="s">
         <v>26</v>
@@ -57560,7 +57563,7 @@
         <v>8.6</v>
       </c>
       <c r="L728" s="0" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="M728" s="0" t="s">
         <v>44</v>
@@ -57592,7 +57595,7 @@
         <v>8198</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="C729" s="0" t="s">
         <v>52</v>
@@ -57601,10 +57604,10 @@
         <v>53</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="G729" s="0" t="s">
         <v>26</v>
@@ -57654,7 +57657,7 @@
         <v>9326</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="C730" s="0" t="s">
         <v>52</v>
@@ -57663,10 +57666,10 @@
         <v>53</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="G730" s="0" t="s">
         <v>26</v>
@@ -57713,7 +57716,7 @@
         <v>9105</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="C731" s="0" t="s">
         <v>52</v>
@@ -57722,10 +57725,10 @@
         <v>53</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>26</v>
@@ -57743,7 +57746,7 @@
         <v>40</v>
       </c>
       <c r="L731" s="0" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="M731" s="0" t="s">
         <v>85</v>
@@ -57775,7 +57778,7 @@
         <v>8188</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="C732" s="0" t="s">
         <v>52</v>
@@ -57784,10 +57787,10 @@
         <v>53</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="G732" s="0" t="s">
         <v>26</v>
@@ -57805,7 +57808,7 @@
         <v>46</v>
       </c>
       <c r="L732" s="0" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="M732" s="0" t="s">
         <v>44</v>
@@ -57837,7 +57840,7 @@
         <v>8189</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="C733" s="0" t="s">
         <v>52</v>
@@ -57846,10 +57849,10 @@
         <v>53</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="G733" s="0" t="s">
         <v>26</v>
@@ -57867,7 +57870,7 @@
         <v>30</v>
       </c>
       <c r="L733" s="0" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="M733" s="0" t="s">
         <v>44</v>
@@ -57899,7 +57902,7 @@
         <v>8330</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="C734" s="0" t="s">
         <v>52</v>
@@ -57908,10 +57911,10 @@
         <v>53</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="F734" s="0" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>26</v>
@@ -57929,7 +57932,7 @@
         <v>29</v>
       </c>
       <c r="L734" s="0" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="M734" s="0" t="s">
         <v>85</v>
@@ -57961,7 +57964,7 @@
         <v>9536</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="C735" s="0" t="s">
         <v>1512</v>
@@ -57970,10 +57973,10 @@
         <v>1513</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="G735" s="0" t="s">
         <v>26</v>
@@ -58023,7 +58026,7 @@
         <v>9327</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="C736" s="0" t="s">
         <v>716</v>
@@ -58032,10 +58035,10 @@
         <v>717</v>
       </c>
       <c r="E736" s="0" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>26</v>
@@ -58053,7 +58056,7 @@
         <v>6</v>
       </c>
       <c r="L736" s="0" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="M736" s="0" t="s">
         <v>226</v>
@@ -58085,7 +58088,7 @@
         <v>9494</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="C737" s="0" t="s">
         <v>716</v>
@@ -58094,10 +58097,10 @@
         <v>717</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>26</v>
@@ -58115,7 +58118,7 @@
         <v>4</v>
       </c>
       <c r="L737" s="0" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="M737" s="0" t="s">
         <v>226</v>
@@ -58147,7 +58150,7 @@
         <v>9495</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C738" s="0" t="s">
         <v>716</v>
@@ -58156,10 +58159,10 @@
         <v>717</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="F738" s="0" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="G738" s="0" t="s">
         <v>26</v>
@@ -58209,7 +58212,7 @@
         <v>9658</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>716</v>
@@ -58218,10 +58221,10 @@
         <v>717</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="G739" s="0" t="s">
         <v>26</v>
@@ -58271,7 +58274,7 @@
         <v>9329</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>716</v>
@@ -58280,10 +58283,10 @@
         <v>717</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="G740" s="0" t="s">
         <v>26</v>
@@ -58301,7 +58304,7 @@
         <v>10</v>
       </c>
       <c r="L740" s="0" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="M740" s="0" t="s">
         <v>85</v>
@@ -58333,7 +58336,7 @@
         <v>9330</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>716</v>
@@ -58342,10 +58345,10 @@
         <v>717</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="G741" s="0" t="s">
         <v>26</v>
@@ -58363,7 +58366,7 @@
         <v>13</v>
       </c>
       <c r="L741" s="0" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="M741" s="0" t="s">
         <v>85</v>
@@ -58395,7 +58398,7 @@
         <v>9331</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>716</v>
@@ -58404,10 +58407,10 @@
         <v>717</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="G742" s="0" t="s">
         <v>26</v>
@@ -58425,7 +58428,7 @@
         <v>14</v>
       </c>
       <c r="L742" s="0" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="M742" s="0" t="s">
         <v>85</v>
@@ -58457,7 +58460,7 @@
         <v>9332</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>716</v>
@@ -58466,10 +58469,10 @@
         <v>717</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="G743" s="0" t="s">
         <v>26</v>
@@ -58487,7 +58490,7 @@
         <v>7</v>
       </c>
       <c r="L743" s="0" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="M743" s="0" t="s">
         <v>85</v>
@@ -58519,7 +58522,7 @@
         <v>9333</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C744" s="0" t="s">
         <v>716</v>
@@ -58528,10 +58531,10 @@
         <v>717</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="G744" s="0" t="s">
         <v>26</v>
@@ -58549,7 +58552,7 @@
         <v>12.8</v>
       </c>
       <c r="L744" s="0" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="M744" s="0" t="s">
         <v>85</v>
@@ -58581,7 +58584,7 @@
         <v>9334</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C745" s="0" t="s">
         <v>716</v>
@@ -58590,10 +58593,10 @@
         <v>717</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>26</v>
@@ -58611,7 +58614,7 @@
         <v>14.5</v>
       </c>
       <c r="L745" s="0" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="M745" s="0" t="s">
         <v>85</v>
@@ -58643,7 +58646,7 @@
         <v>9335</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C746" s="0" t="s">
         <v>716</v>
@@ -58652,10 +58655,10 @@
         <v>717</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="F746" s="0" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="G746" s="0" t="s">
         <v>26</v>
@@ -58673,7 +58676,7 @@
         <v>7</v>
       </c>
       <c r="L746" s="0" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="M746" s="0" t="s">
         <v>226</v>
@@ -58705,7 +58708,7 @@
         <v>9655</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="C747" s="0" t="s">
         <v>716</v>
@@ -58714,10 +58717,10 @@
         <v>717</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="F747" s="0" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="G747" s="0" t="s">
         <v>26</v>
@@ -58767,7 +58770,7 @@
         <v>9656</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>716</v>
@@ -58776,10 +58779,10 @@
         <v>717</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="G748" s="0" t="s">
         <v>26</v>
@@ -58797,7 +58800,7 @@
         <v>2</v>
       </c>
       <c r="L748" s="0" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="M748" s="0" t="s">
         <v>226</v>
@@ -58829,7 +58832,7 @@
         <v>9657</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="C749" s="0" t="s">
         <v>716</v>
@@ -58838,10 +58841,10 @@
         <v>717</v>
       </c>
       <c r="E749" s="0" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>26</v>
@@ -58891,7 +58894,7 @@
         <v>9506</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>716</v>
@@ -58900,10 +58903,10 @@
         <v>717</v>
       </c>
       <c r="E750" s="0" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="F750" s="0" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="G750" s="0" t="s">
         <v>26</v>
@@ -58921,7 +58924,7 @@
         <v>14</v>
       </c>
       <c r="L750" s="0" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="M750" s="0" t="s">
         <v>226</v>
@@ -58953,7 +58956,7 @@
         <v>9328</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="C751" s="0" t="s">
         <v>716</v>
@@ -58962,10 +58965,10 @@
         <v>717</v>
       </c>
       <c r="E751" s="0" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="F751" s="0" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="G751" s="0" t="s">
         <v>26</v>
@@ -58983,7 +58986,7 @@
         <v>9.5</v>
       </c>
       <c r="L751" s="0" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="M751" s="0" t="s">
         <v>85</v>
@@ -59015,7 +59018,7 @@
         <v>9537</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C752" s="0" t="s">
         <v>1512</v>
@@ -59024,10 +59027,10 @@
         <v>1513</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="F752" s="0" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="G752" s="0" t="s">
         <v>26</v>
@@ -59045,7 +59048,7 @@
         <v>40</v>
       </c>
       <c r="L752" s="0" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="M752" s="0" t="s">
         <v>147</v>
@@ -59077,7 +59080,7 @@
         <v>9496</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="C753" s="0" t="s">
         <v>716</v>
@@ -59086,10 +59089,10 @@
         <v>717</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="F753" s="0" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="G753" s="0" t="s">
         <v>26</v>
@@ -59107,7 +59110,7 @@
         <v>4</v>
       </c>
       <c r="L753" s="0" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="M753" s="0" t="s">
         <v>226</v>
@@ -59139,7 +59142,7 @@
         <v>9497</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="C754" s="0" t="s">
         <v>716</v>
@@ -59148,10 +59151,10 @@
         <v>717</v>
       </c>
       <c r="E754" s="0" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="F754" s="0" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="G754" s="0" t="s">
         <v>26</v>
@@ -59169,7 +59172,7 @@
         <v>4</v>
       </c>
       <c r="L754" s="0" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="M754" s="0" t="s">
         <v>226</v>
@@ -59201,7 +59204,7 @@
         <v>9498</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="C755" s="0" t="s">
         <v>716</v>
@@ -59210,10 +59213,10 @@
         <v>717</v>
       </c>
       <c r="E755" s="0" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="F755" s="0" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="G755" s="0" t="s">
         <v>26</v>
@@ -59263,7 +59266,7 @@
         <v>9337</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>716</v>
@@ -59272,10 +59275,10 @@
         <v>717</v>
       </c>
       <c r="E756" s="0" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="F756" s="0" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="G756" s="0" t="s">
         <v>26</v>
@@ -59293,7 +59296,7 @@
         <v>5</v>
       </c>
       <c r="L756" s="0" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="M756" s="0" t="s">
         <v>85</v>
@@ -59325,7 +59328,7 @@
         <v>9338</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>716</v>
@@ -59334,10 +59337,10 @@
         <v>717</v>
       </c>
       <c r="E757" s="0" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="F757" s="0" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="G757" s="0" t="s">
         <v>26</v>
@@ -59355,7 +59358,7 @@
         <v>4</v>
       </c>
       <c r="L757" s="0" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="M757" s="0" t="s">
         <v>85</v>
@@ -59387,7 +59390,7 @@
         <v>9339</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>716</v>
@@ -59396,10 +59399,10 @@
         <v>717</v>
       </c>
       <c r="E758" s="0" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="F758" s="0" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="G758" s="0" t="s">
         <v>26</v>
@@ -59417,7 +59420,7 @@
         <v>5</v>
       </c>
       <c r="L758" s="0" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="M758" s="0" t="s">
         <v>85</v>
@@ -59449,7 +59452,7 @@
         <v>9340</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>716</v>
@@ -59458,10 +59461,10 @@
         <v>717</v>
       </c>
       <c r="E759" s="0" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="F759" s="0" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="G759" s="0" t="s">
         <v>26</v>
@@ -59479,7 +59482,7 @@
         <v>14</v>
       </c>
       <c r="L759" s="0" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="M759" s="0" t="s">
         <v>85</v>
@@ -59511,7 +59514,7 @@
         <v>9341</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>716</v>
@@ -59520,10 +59523,10 @@
         <v>717</v>
       </c>
       <c r="E760" s="0" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="F760" s="0" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="G760" s="0" t="s">
         <v>26</v>
@@ -59573,7 +59576,7 @@
         <v>9343</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C761" s="0" t="s">
         <v>716</v>
@@ -59582,10 +59585,10 @@
         <v>717</v>
       </c>
       <c r="E761" s="0" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="F761" s="0" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="G761" s="0" t="s">
         <v>26</v>
@@ -59603,7 +59606,7 @@
         <v>5</v>
       </c>
       <c r="L761" s="0" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="M761" s="0" t="s">
         <v>85</v>
@@ -59635,7 +59638,7 @@
         <v>9342</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="C762" s="0" t="s">
         <v>716</v>
@@ -59644,10 +59647,10 @@
         <v>717</v>
       </c>
       <c r="E762" s="0" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="F762" s="0" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="G762" s="0" t="s">
         <v>26</v>
@@ -59697,7 +59700,7 @@
         <v>9465</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="C763" s="0" t="s">
         <v>716</v>
@@ -59706,10 +59709,10 @@
         <v>717</v>
       </c>
       <c r="E763" s="0" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="F763" s="0" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="G763" s="0" t="s">
         <v>26</v>
@@ -59727,7 +59730,7 @@
         <v>5</v>
       </c>
       <c r="L763" s="0" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="M763" s="0" t="s">
         <v>226</v>
@@ -59759,7 +59762,7 @@
         <v>9659</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="C764" s="0" t="s">
         <v>716</v>
@@ -59768,10 +59771,10 @@
         <v>717</v>
       </c>
       <c r="E764" s="0" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="F764" s="0" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="G764" s="0" t="s">
         <v>26</v>
@@ -59789,7 +59792,7 @@
         <v>5</v>
       </c>
       <c r="L764" s="0" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="M764" s="0" t="s">
         <v>85</v>
@@ -59821,7 +59824,7 @@
         <v>9782</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="C765" s="0" t="s">
         <v>716</v>
@@ -59830,10 +59833,10 @@
         <v>717</v>
       </c>
       <c r="E765" s="0" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="F765" s="0" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="G765" s="0" t="s">
         <v>26</v>
@@ -59851,7 +59854,7 @@
         <v>4</v>
       </c>
       <c r="L765" s="0" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="M765" s="0" t="s">
         <v>85</v>
@@ -59883,7 +59886,7 @@
         <v>9815</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="C766" s="0" t="s">
         <v>716</v>
@@ -59892,10 +59895,10 @@
         <v>717</v>
       </c>
       <c r="E766" s="0" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="F766" s="0" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="G766" s="0" t="s">
         <v>26</v>
@@ -59913,7 +59916,7 @@
         <v>4</v>
       </c>
       <c r="L766" s="0" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="M766" s="0" t="s">
         <v>226</v>
@@ -59945,7 +59948,7 @@
         <v>9816</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>716</v>
@@ -59954,10 +59957,10 @@
         <v>717</v>
       </c>
       <c r="E767" s="0" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="F767" s="0" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="G767" s="0" t="s">
         <v>26</v>
@@ -59975,7 +59978,7 @@
         <v>3</v>
       </c>
       <c r="L767" s="0" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="M767" s="0" t="s">
         <v>226</v>
@@ -60007,7 +60010,7 @@
         <v>9449</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>716</v>
@@ -60016,10 +60019,10 @@
         <v>717</v>
       </c>
       <c r="E768" s="0" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="F768" s="0" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="G768" s="0" t="s">
         <v>26</v>
@@ -60037,7 +60040,7 @@
         <v>8</v>
       </c>
       <c r="L768" s="0" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="M768" s="0" t="s">
         <v>226</v>
@@ -60069,7 +60072,7 @@
         <v>9450</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="C769" s="0" t="s">
         <v>716</v>
@@ -60078,10 +60081,10 @@
         <v>717</v>
       </c>
       <c r="E769" s="0" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="F769" s="0" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="G769" s="0" t="s">
         <v>26</v>
@@ -60099,7 +60102,7 @@
         <v>5</v>
       </c>
       <c r="L769" s="0" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="M769" s="0" t="s">
         <v>226</v>
@@ -60131,7 +60134,7 @@
         <v>9451</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>716</v>
@@ -60140,10 +60143,10 @@
         <v>717</v>
       </c>
       <c r="E770" s="0" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="F770" s="0" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="G770" s="0" t="s">
         <v>26</v>
@@ -60161,7 +60164,7 @@
         <v>5</v>
       </c>
       <c r="L770" s="0" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="M770" s="0" t="s">
         <v>226</v>
@@ -60193,7 +60196,7 @@
         <v>9452</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="C771" s="0" t="s">
         <v>716</v>
@@ -60202,10 +60205,10 @@
         <v>717</v>
       </c>
       <c r="E771" s="0" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="F771" s="0" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="G771" s="0" t="s">
         <v>26</v>
@@ -60223,7 +60226,7 @@
         <v>5</v>
       </c>
       <c r="L771" s="0" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="M771" s="0" t="s">
         <v>226</v>
@@ -60255,7 +60258,7 @@
         <v>9453</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="C772" s="0" t="s">
         <v>716</v>
@@ -60264,10 +60267,10 @@
         <v>717</v>
       </c>
       <c r="E772" s="0" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="F772" s="0" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="G772" s="0" t="s">
         <v>26</v>
@@ -60285,7 +60288,7 @@
         <v>6</v>
       </c>
       <c r="L772" s="0" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="M772" s="0" t="s">
         <v>226</v>
@@ -60317,7 +60320,7 @@
         <v>9455</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="C773" s="0" t="s">
         <v>716</v>
@@ -60326,10 +60329,10 @@
         <v>717</v>
       </c>
       <c r="E773" s="0" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="F773" s="0" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="G773" s="0" t="s">
         <v>26</v>
@@ -60347,7 +60350,7 @@
         <v>4</v>
       </c>
       <c r="L773" s="0" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="M773" s="0" t="s">
         <v>226</v>
@@ -60379,7 +60382,7 @@
         <v>9454</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>716</v>
@@ -60388,10 +60391,10 @@
         <v>717</v>
       </c>
       <c r="E774" s="0" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="F774" s="0" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="G774" s="0" t="s">
         <v>26</v>
@@ -60409,7 +60412,7 @@
         <v>4</v>
       </c>
       <c r="L774" s="0" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="M774" s="0" t="s">
         <v>226</v>
@@ -60441,7 +60444,7 @@
         <v>9823</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>716</v>
@@ -60450,10 +60453,10 @@
         <v>717</v>
       </c>
       <c r="E775" s="0" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="F775" s="0" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="G775" s="0" t="s">
         <v>26</v>
@@ -60503,7 +60506,7 @@
         <v>9824</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C776" s="0" t="s">
         <v>716</v>
@@ -60512,10 +60515,10 @@
         <v>717</v>
       </c>
       <c r="E776" s="0" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="F776" s="0" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="G776" s="0" t="s">
         <v>26</v>
@@ -60533,7 +60536,7 @@
         <v>4</v>
       </c>
       <c r="L776" s="0" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="M776" s="0" t="s">
         <v>226</v>
@@ -60565,7 +60568,7 @@
         <v>9512</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C777" s="0" t="s">
         <v>716</v>
@@ -60574,10 +60577,10 @@
         <v>717</v>
       </c>
       <c r="E777" s="0" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="F777" s="0" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="G777" s="0" t="s">
         <v>26</v>
@@ -60595,7 +60598,7 @@
         <v>6</v>
       </c>
       <c r="L777" s="0" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="M777" s="0" t="s">
         <v>226</v>
@@ -60627,7 +60630,7 @@
         <v>9513</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>716</v>
@@ -60636,10 +60639,10 @@
         <v>717</v>
       </c>
       <c r="E778" s="0" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="F778" s="0" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="G778" s="0" t="s">
         <v>26</v>
@@ -60689,7 +60692,7 @@
         <v>9514</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C779" s="0" t="s">
         <v>716</v>
@@ -60698,10 +60701,10 @@
         <v>717</v>
       </c>
       <c r="E779" s="0" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="F779" s="0" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="G779" s="0" t="s">
         <v>26</v>
@@ -60751,7 +60754,7 @@
         <v>9248</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C780" s="0" t="s">
         <v>591</v>
@@ -60760,10 +60763,10 @@
         <v>592</v>
       </c>
       <c r="E780" s="0" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="F780" s="0" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="G780" s="0" t="s">
         <v>26</v>
@@ -60781,7 +60784,7 @@
         <v>13.5</v>
       </c>
       <c r="L780" s="0" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="M780" s="0" t="s">
         <v>44</v>
@@ -60813,7 +60816,7 @@
         <v>8925</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="C781" s="0" t="s">
         <v>2240</v>
@@ -60822,16 +60825,16 @@
         <v>2241</v>
       </c>
       <c r="E781" s="0" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="F781" s="0" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="G781" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H781" s="0" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="I781" s="0" t="s">
         <v>70</v>
@@ -60875,7 +60878,7 @@
         <v>8927</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="C782" s="0" t="s">
         <v>2240</v>
@@ -60884,16 +60887,16 @@
         <v>2241</v>
       </c>
       <c r="E782" s="0" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="F782" s="0" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="G782" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H782" s="0" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="I782" s="0" t="s">
         <v>70</v>
@@ -60905,7 +60908,7 @@
         <v>8</v>
       </c>
       <c r="L782" s="0" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="M782" s="0" t="s">
         <v>44</v>
@@ -60937,19 +60940,19 @@
         <v>8622</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="E783" s="0" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="F783" s="0" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="G783" s="0" t="s">
         <v>26</v>
@@ -60999,25 +61002,25 @@
         <v>9173</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E784" s="0" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="F784" s="0" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="G784" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H784" s="0" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="I784" s="0" t="s">
         <v>28</v>
@@ -61029,7 +61032,7 @@
         <v>20</v>
       </c>
       <c r="L784" s="0" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="M784" s="0" t="s">
         <v>44</v>
@@ -61061,7 +61064,7 @@
         <v>9138</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>1541</v>
@@ -61070,10 +61073,10 @@
         <v>53</v>
       </c>
       <c r="E785" s="0" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="F785" s="0" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="G785" s="0" t="s">
         <v>26</v>
@@ -61123,7 +61126,7 @@
         <v>9139</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>1541</v>
@@ -61132,10 +61135,10 @@
         <v>53</v>
       </c>
       <c r="E786" s="0" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="F786" s="0" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="G786" s="0" t="s">
         <v>26</v>
@@ -61153,7 +61156,7 @@
         <v>6.5</v>
       </c>
       <c r="L786" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="M786" s="0" t="s">
         <v>44</v>
@@ -61185,7 +61188,7 @@
         <v>9140</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C787" s="0" t="s">
         <v>1541</v>
@@ -61194,10 +61197,10 @@
         <v>53</v>
       </c>
       <c r="E787" s="0" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="F787" s="0" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="G787" s="0" t="s">
         <v>26</v>
@@ -61215,7 +61218,7 @@
         <v>5</v>
       </c>
       <c r="L787" s="0" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="M787" s="0" t="s">
         <v>44</v>
@@ -61247,7 +61250,7 @@
         <v>9141</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>1541</v>
@@ -61256,10 +61259,10 @@
         <v>53</v>
       </c>
       <c r="E788" s="0" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="F788" s="0" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="G788" s="0" t="s">
         <v>26</v>
@@ -61309,7 +61312,7 @@
         <v>9142</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C789" s="0" t="s">
         <v>1541</v>
@@ -61318,10 +61321,10 @@
         <v>53</v>
       </c>
       <c r="E789" s="0" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="F789" s="0" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="G789" s="0" t="s">
         <v>26</v>
@@ -61339,7 +61342,7 @@
         <v>4</v>
       </c>
       <c r="L789" s="0" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="M789" s="0" t="s">
         <v>44</v>
@@ -61371,7 +61374,7 @@
         <v>8403</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="C790" s="0" t="s">
         <v>52</v>
@@ -61380,10 +61383,10 @@
         <v>53</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="F790" s="0" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="G790" s="0" t="s">
         <v>26</v>
@@ -61401,7 +61404,7 @@
         <v>9</v>
       </c>
       <c r="L790" s="0" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="M790" s="0" t="s">
         <v>44</v>
@@ -61433,7 +61436,7 @@
         <v>9390</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C791" s="0" t="s">
         <v>866</v>
@@ -61442,10 +61445,10 @@
         <v>867</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="F791" s="0" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="G791" s="0" t="s">
         <v>26</v>
@@ -61463,7 +61466,7 @@
         <v>8.46</v>
       </c>
       <c r="L791" s="0" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="M791" s="0" t="s">
         <v>44</v>
@@ -61495,25 +61498,25 @@
         <v>8909</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="F792" s="0" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="G792" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H792" s="0" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="I792" s="0" t="s">
         <v>28</v>
@@ -61525,7 +61528,7 @@
         <v>13.12</v>
       </c>
       <c r="L792" s="0" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="M792" s="0" t="s">
         <v>44</v>
@@ -61557,25 +61560,25 @@
         <v>8910</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="E793" s="0" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="F793" s="0" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="G793" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H793" s="0" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="I793" s="0" t="s">
         <v>28</v>
@@ -61587,7 +61590,7 @@
         <v>11.9</v>
       </c>
       <c r="L793" s="0" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="M793" s="0" t="s">
         <v>44</v>
@@ -61619,25 +61622,25 @@
         <v>8914</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D794" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="F794" s="0" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="G794" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H794" s="0" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="I794" s="0" t="s">
         <v>28</v>
@@ -61681,7 +61684,7 @@
         <v>8959</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>1430</v>
@@ -61690,16 +61693,16 @@
         <v>1431</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="F795" s="0" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="G795" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H795" s="0" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="I795" s="0" t="s">
         <v>1444</v>
@@ -61711,7 +61714,7 @@
         <v>4.5</v>
       </c>
       <c r="L795" s="0" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="M795" s="0" t="s">
         <v>44</v>
@@ -61743,7 +61746,7 @@
         <v>8332</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>52</v>
@@ -61752,10 +61755,10 @@
         <v>53</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="F796" s="0" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="G796" s="0" t="s">
         <v>26</v>
@@ -61773,7 +61776,7 @@
         <v>68</v>
       </c>
       <c r="L796" s="0" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="M796" s="0" t="s">
         <v>147</v>
@@ -61805,7 +61808,7 @@
         <v>8375</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>52</v>
@@ -61814,10 +61817,10 @@
         <v>53</v>
       </c>
       <c r="E797" s="0" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="F797" s="0" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="G797" s="0" t="s">
         <v>26</v>
@@ -61835,7 +61838,7 @@
         <v>28.9</v>
       </c>
       <c r="L797" s="0" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="M797" s="0" t="s">
         <v>85</v>
@@ -61867,19 +61870,19 @@
         <v>8730</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D798" s="0" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E798" s="0" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="F798" s="0" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="G798" s="0" t="s">
         <v>26</v>
@@ -61897,7 +61900,7 @@
         <v>8</v>
       </c>
       <c r="L798" s="0" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="M798" s="0" t="s">
         <v>44</v>
@@ -61929,19 +61932,19 @@
         <v>8759</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E799" s="0" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="F799" s="0" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="G799" s="0" t="s">
         <v>26</v>
@@ -61959,7 +61962,7 @@
         <v>7</v>
       </c>
       <c r="L799" s="0" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="M799" s="0" t="s">
         <v>44</v>
@@ -61991,7 +61994,7 @@
         <v>8308</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C800" s="0" t="s">
         <v>52</v>
@@ -62000,10 +62003,10 @@
         <v>53</v>
       </c>
       <c r="E800" s="0" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="F800" s="0" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="G800" s="0" t="s">
         <v>26</v>
@@ -62053,7 +62056,7 @@
         <v>8405</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="C801" s="0" t="s">
         <v>52</v>
@@ -62062,10 +62065,10 @@
         <v>53</v>
       </c>
       <c r="E801" s="0" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="F801" s="0" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="G801" s="0" t="s">
         <v>26</v>
@@ -62083,7 +62086,7 @@
         <v>24</v>
       </c>
       <c r="L801" s="0" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="M801" s="0" t="s">
         <v>85</v>
@@ -62115,7 +62118,7 @@
         <v>9143</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>1541</v>
@@ -62124,10 +62127,10 @@
         <v>53</v>
       </c>
       <c r="E802" s="0" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="F802" s="0" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="G802" s="0" t="s">
         <v>26</v>
@@ -62145,7 +62148,7 @@
         <v>7</v>
       </c>
       <c r="L802" s="0" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="M802" s="0" t="s">
         <v>44</v>
@@ -62177,19 +62180,19 @@
         <v>10033</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="C803" s="0" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="D803" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E803" s="0" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="F803" s="0" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="G803" s="0" t="s">
         <v>26</v>
@@ -62207,7 +62210,7 @@
         <v>10.79</v>
       </c>
       <c r="L803" s="0" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="M803" s="0" t="s">
         <v>85</v>
@@ -62239,7 +62242,7 @@
         <v>9172</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="C804" s="0" t="s">
         <v>1703</v>
@@ -62248,10 +62251,10 @@
         <v>1704</v>
       </c>
       <c r="E804" s="0" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="F804" s="0" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="G804" s="0" t="s">
         <v>26</v>
@@ -62301,7 +62304,7 @@
         <v>9482</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="C805" s="0" t="s">
         <v>1703</v>
@@ -62310,10 +62313,10 @@
         <v>1704</v>
       </c>
       <c r="E805" s="0" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="F805" s="0" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="G805" s="0" t="s">
         <v>26</v>
@@ -62331,7 +62334,7 @@
         <v>6</v>
       </c>
       <c r="L805" s="0" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="M805" s="0" t="s">
         <v>44</v>
@@ -62363,7 +62366,7 @@
         <v>9483</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>1703</v>
@@ -62372,10 +62375,10 @@
         <v>1704</v>
       </c>
       <c r="E806" s="0" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="F806" s="0" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="G806" s="0" t="s">
         <v>26</v>
@@ -62390,7 +62393,7 @@
         <v>5</v>
       </c>
       <c r="L806" s="0" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="M806" s="0" t="s">
         <v>44</v>
@@ -62422,25 +62425,25 @@
         <v>8548</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D807" s="0" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E807" s="0" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="F807" s="0" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="G807" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H807" s="0" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="I807" s="0" t="s">
         <v>70</v>
@@ -62452,7 +62455,7 @@
         <v>8</v>
       </c>
       <c r="L807" s="0" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="M807" s="0" t="s">
         <v>44</v>
@@ -62484,25 +62487,25 @@
         <v>9924</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="C808" s="0" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E808" s="0" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="F808" s="0" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="G808" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H808" s="0" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="I808" s="0" t="s">
         <v>70</v>
@@ -62546,7 +62549,7 @@
         <v>8358</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>52</v>
@@ -62555,10 +62558,10 @@
         <v>53</v>
       </c>
       <c r="E809" s="0" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="F809" s="0" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="G809" s="0" t="s">
         <v>26</v>
@@ -62576,7 +62579,7 @@
         <v>16</v>
       </c>
       <c r="L809" s="0" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="M809" s="0" t="s">
         <v>44</v>
@@ -62608,28 +62611,28 @@
         <v>8826</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="C810" s="0" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="E810" s="0" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="F810" s="0" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="G810" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H810" s="0" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="I810" s="0" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="J810" s="0" t="s">
         <v>1291</v>
@@ -62638,7 +62641,7 @@
         <v>3</v>
       </c>
       <c r="L810" s="0" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="M810" s="0" t="s">
         <v>44</v>
@@ -62670,7 +62673,7 @@
         <v>9235</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>716</v>
@@ -62679,10 +62682,10 @@
         <v>717</v>
       </c>
       <c r="E811" s="0" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="F811" s="0" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="G811" s="0" t="s">
         <v>26</v>
@@ -62700,7 +62703,7 @@
         <v>0</v>
       </c>
       <c r="L811" s="0" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="M811" s="0" t="s">
         <v>44</v>
@@ -62732,7 +62735,7 @@
         <v>9236</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="C812" s="0" t="s">
         <v>716</v>
@@ -62741,10 +62744,10 @@
         <v>717</v>
       </c>
       <c r="E812" s="0" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="F812" s="0" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="G812" s="0" t="s">
         <v>26</v>
@@ -62794,19 +62797,19 @@
         <v>9585</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="C813" s="0" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="D813" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E813" s="0" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="F813" s="0" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="G813" s="0" t="s">
         <v>26</v>
@@ -62824,7 +62827,7 @@
         <v>8</v>
       </c>
       <c r="L813" s="0" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="M813" s="0" t="s">
         <v>44</v>
@@ -62856,7 +62859,7 @@
         <v>8939</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="C814" s="0" t="s">
         <v>309</v>
@@ -62865,16 +62868,16 @@
         <v>310</v>
       </c>
       <c r="E814" s="0" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="F814" s="0" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="G814" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H814" s="0" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="I814" s="0" t="s">
         <v>120</v>
@@ -62886,7 +62889,7 @@
         <v>50</v>
       </c>
       <c r="L814" s="0" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="M814" s="0" t="s">
         <v>44</v>
@@ -62918,7 +62921,7 @@
         <v>8700</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>2109</v>
@@ -62927,10 +62930,10 @@
         <v>2110</v>
       </c>
       <c r="E815" s="0" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="F815" s="0" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="G815" s="0" t="s">
         <v>26</v>
@@ -62948,7 +62951,7 @@
         <v>50.5</v>
       </c>
       <c r="L815" s="0" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="M815" s="0" t="s">
         <v>85</v>
@@ -62980,19 +62983,19 @@
         <v>8190</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="D816" s="0" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="E816" s="0" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="F816" s="0" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="G816" s="0" t="s">
         <v>26</v>
@@ -63042,19 +63045,19 @@
         <v>8877</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="D817" s="0" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="E817" s="0" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="F817" s="0" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="G817" s="0" t="s">
         <v>26</v>
@@ -63066,7 +63069,7 @@
         <v>28</v>
       </c>
       <c r="J817" s="0" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="K817" s="0">
         <v>4</v>
@@ -63104,19 +63107,19 @@
         <v>9019</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="D818" s="0" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="E818" s="0" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="F818" s="0" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="G818" s="0" t="s">
         <v>699</v>
@@ -63134,7 +63137,7 @@
         <v>5</v>
       </c>
       <c r="L818" s="0" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="M818" s="0" t="s">
         <v>44</v>
@@ -63166,19 +63169,19 @@
         <v>9110</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="C819" s="0" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="D819" s="0" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="E819" s="0" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="F819" s="0" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="G819" s="0" t="s">
         <v>26</v>
@@ -63196,7 +63199,7 @@
         <v>6</v>
       </c>
       <c r="L819" s="0" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="M819" s="0" t="s">
         <v>44</v>
@@ -63228,25 +63231,25 @@
         <v>9153</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C820" s="0" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="E820" s="0" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="F820" s="0" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="G820" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H820" s="0" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="I820" s="0" t="s">
         <v>782</v>
@@ -63258,7 +63261,7 @@
         <v>2</v>
       </c>
       <c r="L820" s="0" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="M820" s="0" t="s">
         <v>44</v>
@@ -63290,25 +63293,25 @@
         <v>9080</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C821" s="0" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="D821" s="0" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="E821" s="0" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="F821" s="0" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="G821" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H821" s="0" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="I821" s="0" t="s">
         <v>782</v>
@@ -63320,7 +63323,7 @@
         <v>3</v>
       </c>
       <c r="L821" s="0" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="M821" s="0" t="s">
         <v>44</v>
@@ -63352,25 +63355,25 @@
         <v>9083</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="E822" s="0" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="F822" s="0" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="G822" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H822" s="0" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="I822" s="0" t="s">
         <v>782</v>
@@ -63382,7 +63385,7 @@
         <v>2</v>
       </c>
       <c r="L822" s="0" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="M822" s="0" t="s">
         <v>44</v>
@@ -63414,25 +63417,25 @@
         <v>9111</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C823" s="0" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="E823" s="0" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="F823" s="0" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="G823" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H823" s="0" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="I823" s="0" t="s">
         <v>782</v>
@@ -63476,25 +63479,25 @@
         <v>9155</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="C824" s="0" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="E824" s="0" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="F824" s="0" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="G824" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H824" s="0" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="I824" s="0" t="s">
         <v>782</v>
@@ -63506,7 +63509,7 @@
         <v>2</v>
       </c>
       <c r="L824" s="0" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="M824" s="0" t="s">
         <v>44</v>
@@ -63538,19 +63541,19 @@
         <v>8688</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="E825" s="0" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="F825" s="0" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="G825" s="0" t="s">
         <v>26</v>
@@ -63600,7 +63603,7 @@
         <v>8359</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>52</v>
@@ -63609,10 +63612,10 @@
         <v>53</v>
       </c>
       <c r="E826" s="0" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="F826" s="0" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="G826" s="0" t="s">
         <v>26</v>
@@ -63630,7 +63633,7 @@
         <v>31</v>
       </c>
       <c r="L826" s="0" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="M826" s="0" t="s">
         <v>44</v>
@@ -63662,7 +63665,7 @@
         <v>9152</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>2995</v>
@@ -63671,10 +63674,10 @@
         <v>2996</v>
       </c>
       <c r="E827" s="0" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="F827" s="0" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="G827" s="0" t="s">
         <v>26</v>
@@ -63692,7 +63695,7 @@
         <v>10</v>
       </c>
       <c r="L827" s="0" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="M827" s="0" t="s">
         <v>226</v>
@@ -63724,7 +63727,7 @@
         <v>9423</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>198</v>
@@ -63733,10 +63736,10 @@
         <v>199</v>
       </c>
       <c r="E828" s="0" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="F828" s="0" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="G828" s="0" t="s">
         <v>26</v>
@@ -63786,19 +63789,19 @@
         <v>8471</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="C829" s="0" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="D829" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E829" s="0" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="F829" s="0" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="G829" s="0" t="s">
         <v>26</v>
@@ -63816,7 +63819,7 @@
         <v>25</v>
       </c>
       <c r="L829" s="0" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="M829" s="0" t="s">
         <v>85</v>
@@ -63848,19 +63851,19 @@
         <v>9197</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="C830" s="0" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="D830" s="0" t="s">
         <v>285</v>
       </c>
       <c r="E830" s="0" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="F830" s="0" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="G830" s="0" t="s">
         <v>26</v>
@@ -63878,7 +63881,7 @@
         <v>13.5</v>
       </c>
       <c r="L830" s="0" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="M830" s="0" t="s">
         <v>85</v>
@@ -63910,7 +63913,7 @@
         <v>9925</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="C831" s="0" t="s">
         <v>65</v>
@@ -63919,10 +63922,10 @@
         <v>66</v>
       </c>
       <c r="E831" s="0" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="F831" s="0" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="G831" s="0" t="s">
         <v>26</v>
@@ -63937,7 +63940,7 @@
         <v>13.08</v>
       </c>
       <c r="L831" s="0" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="M831" s="0" t="s">
         <v>44</v>
@@ -63969,7 +63972,7 @@
         <v>8993</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>695</v>
@@ -63978,10 +63981,10 @@
         <v>696</v>
       </c>
       <c r="E832" s="0" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="F832" s="0" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="G832" s="0" t="s">
         <v>699</v>
@@ -63999,7 +64002,7 @@
         <v>9</v>
       </c>
       <c r="L832" s="0" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="M832" s="0" t="s">
         <v>44</v>
@@ -64031,7 +64034,7 @@
         <v>8472</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>298</v>
@@ -64040,10 +64043,10 @@
         <v>199</v>
       </c>
       <c r="E833" s="0" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="F833" s="0" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="G833" s="0" t="s">
         <v>26</v>
@@ -64061,7 +64064,7 @@
         <v>32</v>
       </c>
       <c r="L833" s="0" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="M833" s="0" t="s">
         <v>85</v>
@@ -64093,25 +64096,25 @@
         <v>8930</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="D834" s="0" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="E834" s="0" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="F834" s="0" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="G834" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H834" s="0" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="I834" s="0" t="s">
         <v>120</v>
@@ -64155,19 +64158,19 @@
         <v>9934</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="D835" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E835" s="0" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="F835" s="0" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="G835" s="0" t="s">
         <v>26</v>
@@ -64214,7 +64217,7 @@
         <v>8915</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>2097</v>
@@ -64223,10 +64226,10 @@
         <v>2098</v>
       </c>
       <c r="E836" s="0" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="F836" s="0" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="G836" s="0" t="s">
         <v>26</v>
@@ -64244,7 +64247,7 @@
         <v>36</v>
       </c>
       <c r="L836" s="0" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="M836" s="0" t="s">
         <v>85</v>
@@ -64276,7 +64279,7 @@
         <v>9586</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>245</v>
@@ -64335,25 +64338,25 @@
         <v>9026</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="C838" s="0" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D838" s="0" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="E838" s="0" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="F838" s="0" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="G838" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H838" s="0" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="I838" s="0" t="s">
         <v>469</v>
@@ -64397,19 +64400,19 @@
         <v>9432</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="C839" s="0" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="D839" s="0" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="E839" s="0" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="F839" s="0" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="G839" s="0" t="s">
         <v>26</v>
@@ -64459,7 +64462,7 @@
         <v>9462</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>1447</v>
@@ -64468,10 +64471,10 @@
         <v>199</v>
       </c>
       <c r="E840" s="0" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="F840" s="0" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="G840" s="0" t="s">
         <v>26</v>
@@ -64489,7 +64492,7 @@
         <v>8</v>
       </c>
       <c r="L840" s="0" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="M840" s="0" t="s">
         <v>226</v>
@@ -64521,25 +64524,25 @@
         <v>8606</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C841" s="0" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="D841" s="0" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="E841" s="0" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="F841" s="0" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="G841" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H841" s="0" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="I841" s="0" t="s">
         <v>120</v>
@@ -64583,19 +64586,19 @@
         <v>8836</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="C842" s="0" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="D842" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E842" s="0" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="F842" s="0" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="G842" s="0" t="s">
         <v>26</v>
@@ -64613,7 +64616,7 @@
         <v>28</v>
       </c>
       <c r="L842" s="0" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="M842" s="0" t="s">
         <v>85</v>
@@ -64645,19 +64648,19 @@
         <v>9420</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="D843" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E843" s="0" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="F843" s="0" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="G843" s="0" t="s">
         <v>26</v>
@@ -64707,7 +64710,7 @@
         <v>8335</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>52</v>
@@ -64716,10 +64719,10 @@
         <v>53</v>
       </c>
       <c r="E844" s="0" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="F844" s="0" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="G844" s="0" t="s">
         <v>26</v>
@@ -64737,7 +64740,7 @@
         <v>51.72</v>
       </c>
       <c r="L844" s="0" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="M844" s="0" t="s">
         <v>85</v>
@@ -64769,19 +64772,19 @@
         <v>8743</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="D845" s="0" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="E845" s="0" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="G845" s="0" t="s">
         <v>26</v>
@@ -64831,19 +64834,19 @@
         <v>9244</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="C846" s="0" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="D846" s="0" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="E846" s="0" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="F846" s="0" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="G846" s="0" t="s">
         <v>26</v>
@@ -64861,7 +64864,7 @@
         <v>10</v>
       </c>
       <c r="L846" s="0" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="M846" s="0" t="s">
         <v>44</v>
@@ -64893,19 +64896,19 @@
         <v>9717</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="C847" s="0" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="D847" s="0" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="E847" s="0" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="F847" s="0" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="G847" s="0" t="s">
         <v>26</v>
@@ -64952,19 +64955,19 @@
         <v>8710</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="D848" s="0" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="E848" s="0" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="F848" s="0" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="G848" s="0" t="s">
         <v>26</v>
@@ -64982,7 +64985,7 @@
         <v>13.4</v>
       </c>
       <c r="L848" s="0" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="M848" s="0" t="s">
         <v>147</v>
@@ -65014,19 +65017,19 @@
         <v>9686</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D849" s="0" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="E849" s="0" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="F849" s="0" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="G849" s="0" t="s">
         <v>26</v>
@@ -65044,7 +65047,7 @@
         <v>4.2</v>
       </c>
       <c r="L849" s="0" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="M849" s="0" t="s">
         <v>44</v>
@@ -65076,7 +65079,7 @@
         <v>8560</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>977</v>
@@ -65085,10 +65088,10 @@
         <v>978</v>
       </c>
       <c r="E850" s="0" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="G850" s="0" t="s">
         <v>26</v>
@@ -65106,7 +65109,7 @@
         <v>18</v>
       </c>
       <c r="L850" s="0" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="M850" s="0" t="s">
         <v>44</v>
@@ -65138,7 +65141,7 @@
         <v>8561</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>977</v>
@@ -65147,10 +65150,10 @@
         <v>978</v>
       </c>
       <c r="E851" s="0" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="G851" s="0" t="s">
         <v>26</v>
@@ -65168,7 +65171,7 @@
         <v>16</v>
       </c>
       <c r="L851" s="0" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="M851" s="0" t="s">
         <v>44</v>
@@ -65200,7 +65203,7 @@
         <v>8562</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>977</v>
@@ -65209,10 +65212,10 @@
         <v>978</v>
       </c>
       <c r="E852" s="0" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="F852" s="0" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="G852" s="0" t="s">
         <v>26</v>
@@ -65230,7 +65233,7 @@
         <v>23.9</v>
       </c>
       <c r="L852" s="0" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="M852" s="0" t="s">
         <v>44</v>
@@ -65262,7 +65265,7 @@
         <v>8563</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C853" s="0" t="s">
         <v>977</v>
@@ -65271,10 +65274,10 @@
         <v>978</v>
       </c>
       <c r="E853" s="0" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="F853" s="0" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="G853" s="0" t="s">
         <v>26</v>
@@ -65292,7 +65295,7 @@
         <v>18.75</v>
       </c>
       <c r="L853" s="0" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="M853" s="0" t="s">
         <v>44</v>
@@ -65324,7 +65327,7 @@
         <v>8565</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="C854" s="0" t="s">
         <v>977</v>
@@ -65333,10 +65336,10 @@
         <v>978</v>
       </c>
       <c r="E854" s="0" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="F854" s="0" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="G854" s="0" t="s">
         <v>26</v>
@@ -65354,7 +65357,7 @@
         <v>15</v>
       </c>
       <c r="L854" s="0" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="M854" s="0" t="s">
         <v>44</v>
@@ -65386,7 +65389,7 @@
         <v>8566</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>977</v>
@@ -65395,10 +65398,10 @@
         <v>978</v>
       </c>
       <c r="E855" s="0" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F855" s="0" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="G855" s="0" t="s">
         <v>26</v>
@@ -65416,7 +65419,7 @@
         <v>15</v>
       </c>
       <c r="L855" s="0" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="M855" s="0" t="s">
         <v>44</v>
@@ -65448,7 +65451,7 @@
         <v>8567</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>977</v>
@@ -65457,10 +65460,10 @@
         <v>978</v>
       </c>
       <c r="E856" s="0" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="G856" s="0" t="s">
         <v>26</v>
@@ -65478,7 +65481,7 @@
         <v>20.5</v>
       </c>
       <c r="L856" s="0" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="M856" s="0" t="s">
         <v>44</v>
@@ -65510,7 +65513,7 @@
         <v>8575</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>977</v>
@@ -65519,10 +65522,10 @@
         <v>978</v>
       </c>
       <c r="E857" s="0" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="G857" s="0" t="s">
         <v>26</v>
@@ -65540,7 +65543,7 @@
         <v>20</v>
       </c>
       <c r="L857" s="0" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="M857" s="0" t="s">
         <v>44</v>
@@ -65572,7 +65575,7 @@
         <v>9457</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>977</v>
@@ -65581,10 +65584,10 @@
         <v>978</v>
       </c>
       <c r="E858" s="0" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="G858" s="0" t="s">
         <v>26</v>
@@ -65602,7 +65605,7 @@
         <v>22.3</v>
       </c>
       <c r="L858" s="0" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="M858" s="0" t="s">
         <v>85</v>
@@ -65634,7 +65637,7 @@
         <v>8577</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>977</v>
@@ -65643,10 +65646,10 @@
         <v>978</v>
       </c>
       <c r="E859" s="0" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="F859" s="0" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G859" s="0" t="s">
         <v>26</v>
@@ -65664,7 +65667,7 @@
         <v>23.2</v>
       </c>
       <c r="L859" s="0" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="M859" s="0" t="s">
         <v>147</v>
@@ -65696,7 +65699,7 @@
         <v>9545</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>977</v>
@@ -65705,10 +65708,10 @@
         <v>978</v>
       </c>
       <c r="E860" s="0" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="F860" s="0" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="G860" s="0" t="s">
         <v>26</v>
@@ -65755,7 +65758,7 @@
         <v>8578</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>977</v>
@@ -65764,10 +65767,10 @@
         <v>978</v>
       </c>
       <c r="E861" s="0" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="F861" s="0" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="G861" s="0" t="s">
         <v>26</v>
@@ -65785,7 +65788,7 @@
         <v>26.5</v>
       </c>
       <c r="L861" s="0" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="M861" s="0" t="s">
         <v>226</v>
@@ -65817,7 +65820,7 @@
         <v>8579</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>977</v>
@@ -65826,10 +65829,10 @@
         <v>978</v>
       </c>
       <c r="E862" s="0" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="F862" s="0" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="G862" s="0" t="s">
         <v>26</v>
@@ -65847,7 +65850,7 @@
         <v>24.5</v>
       </c>
       <c r="L862" s="0" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="M862" s="0" t="s">
         <v>226</v>
@@ -65879,7 +65882,7 @@
         <v>8581</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>977</v>
@@ -65888,10 +65891,10 @@
         <v>978</v>
       </c>
       <c r="E863" s="0" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="F863" s="0" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="G863" s="0" t="s">
         <v>26</v>
@@ -65909,7 +65912,7 @@
         <v>19</v>
       </c>
       <c r="L863" s="0" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="M863" s="0" t="s">
         <v>226</v>
@@ -65941,7 +65944,7 @@
         <v>8588</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>977</v>
@@ -65950,10 +65953,10 @@
         <v>978</v>
       </c>
       <c r="E864" s="0" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="G864" s="0" t="s">
         <v>26</v>
@@ -65971,7 +65974,7 @@
         <v>23</v>
       </c>
       <c r="L864" s="0" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="M864" s="0" t="s">
         <v>226</v>
@@ -66003,7 +66006,7 @@
         <v>8590</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>977</v>
@@ -66012,10 +66015,10 @@
         <v>978</v>
       </c>
       <c r="E865" s="0" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="F865" s="0" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="G865" s="0" t="s">
         <v>26</v>
@@ -66033,7 +66036,7 @@
         <v>16.5</v>
       </c>
       <c r="L865" s="0" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="M865" s="0" t="s">
         <v>147</v>
@@ -66065,7 +66068,7 @@
         <v>8595</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>977</v>
@@ -66074,10 +66077,10 @@
         <v>978</v>
       </c>
       <c r="E866" s="0" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="G866" s="0" t="s">
         <v>26</v>
@@ -66095,7 +66098,7 @@
         <v>21</v>
       </c>
       <c r="L866" s="0" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="M866" s="0" t="s">
         <v>226</v>
@@ -66127,7 +66130,7 @@
         <v>8596</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>977</v>
@@ -66136,10 +66139,10 @@
         <v>978</v>
       </c>
       <c r="E867" s="0" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="F867" s="0" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="G867" s="0" t="s">
         <v>26</v>
@@ -66157,7 +66160,7 @@
         <v>22.6</v>
       </c>
       <c r="L867" s="0" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="M867" s="0" t="s">
         <v>226</v>
@@ -66189,7 +66192,7 @@
         <v>8597</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>977</v>
@@ -66198,10 +66201,10 @@
         <v>978</v>
       </c>
       <c r="E868" s="0" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="G868" s="0" t="s">
         <v>26</v>
@@ -66219,7 +66222,7 @@
         <v>31.7</v>
       </c>
       <c r="L868" s="0" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="M868" s="0" t="s">
         <v>226</v>
@@ -66251,7 +66254,7 @@
         <v>8598</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>977</v>
@@ -66260,10 +66263,10 @@
         <v>978</v>
       </c>
       <c r="E869" s="0" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="G869" s="0" t="s">
         <v>26</v>
@@ -66281,7 +66284,7 @@
         <v>24</v>
       </c>
       <c r="L869" s="0" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="M869" s="0" t="s">
         <v>44</v>
@@ -66313,7 +66316,7 @@
         <v>8599</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>977</v>
@@ -66322,10 +66325,10 @@
         <v>978</v>
       </c>
       <c r="E870" s="0" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="F870" s="0" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="G870" s="0" t="s">
         <v>26</v>
@@ -66343,7 +66346,7 @@
         <v>26.5</v>
       </c>
       <c r="L870" s="0" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="M870" s="0" t="s">
         <v>44</v>
@@ -66375,7 +66378,7 @@
         <v>8600</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>977</v>
@@ -66384,10 +66387,10 @@
         <v>978</v>
       </c>
       <c r="E871" s="0" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="F871" s="0" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="G871" s="0" t="s">
         <v>26</v>
@@ -66405,7 +66408,7 @@
         <v>21</v>
       </c>
       <c r="L871" s="0" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="M871" s="0" t="s">
         <v>44</v>
@@ -66437,7 +66440,7 @@
         <v>9693</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>1936</v>
@@ -66446,10 +66449,10 @@
         <v>1937</v>
       </c>
       <c r="E872" s="0" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="F872" s="0" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="G872" s="0" t="s">
         <v>26</v>
@@ -66499,7 +66502,7 @@
         <v>9973</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>298</v>
@@ -66508,10 +66511,10 @@
         <v>199</v>
       </c>
       <c r="E873" s="0" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="F873" s="0" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="G873" s="0" t="s">
         <v>26</v>
@@ -66529,7 +66532,7 @@
         <v>14</v>
       </c>
       <c r="L873" s="0" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="M873" s="0" t="s">
         <v>85</v>
@@ -66561,7 +66564,7 @@
         <v>8376</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>52</v>
@@ -66570,10 +66573,10 @@
         <v>53</v>
       </c>
       <c r="E874" s="0" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="F874" s="0" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="G874" s="0" t="s">
         <v>26</v>
@@ -66591,7 +66594,7 @@
         <v>83</v>
       </c>
       <c r="L874" s="0" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="M874" s="0" t="s">
         <v>85</v>
@@ -66623,7 +66626,7 @@
         <v>8430</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>52</v>
@@ -66632,10 +66635,10 @@
         <v>53</v>
       </c>
       <c r="E875" s="0" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="F875" s="0" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="G875" s="0" t="s">
         <v>26</v>
@@ -66653,7 +66656,7 @@
         <v>35</v>
       </c>
       <c r="L875" s="0" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="M875" s="0" t="s">
         <v>44</v>
@@ -66685,7 +66688,7 @@
         <v>8621</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>52</v>
@@ -66694,10 +66697,10 @@
         <v>53</v>
       </c>
       <c r="E876" s="0" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="F876" s="0" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="G876" s="0" t="s">
         <v>26</v>
@@ -66715,7 +66718,7 @@
         <v>12</v>
       </c>
       <c r="L876" s="0" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="M876" s="0" t="s">
         <v>44</v>
@@ -66747,7 +66750,7 @@
         <v>8389</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="C877" s="0" t="s">
         <v>52</v>
@@ -66756,10 +66759,10 @@
         <v>53</v>
       </c>
       <c r="E877" s="0" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="F877" s="0" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="G877" s="0" t="s">
         <v>26</v>
@@ -66777,7 +66780,7 @@
         <v>85</v>
       </c>
       <c r="L877" s="0" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="M877" s="0" t="s">
         <v>147</v>
@@ -66809,7 +66812,7 @@
         <v>8777</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="C878" s="0" t="s">
         <v>1337</v>
@@ -66818,10 +66821,10 @@
         <v>1338</v>
       </c>
       <c r="E878" s="0" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="F878" s="0" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="G878" s="0" t="s">
         <v>26</v>
@@ -66871,19 +66874,19 @@
         <v>9576</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="D879" s="0" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="E879" s="0" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="F879" s="0" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="G879" s="0" t="s">
         <v>26</v>
@@ -66930,19 +66933,19 @@
         <v>8549</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="D880" s="0" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="E880" s="0" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="F880" s="0" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="G880" s="0" t="s">
         <v>26</v>
@@ -66992,19 +66995,19 @@
         <v>8550</v>
       </c>
       <c r="B881" s="0" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D881" s="0" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E881" s="0" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F881" s="0" t="s">
         <v>4032</v>
-      </c>
-      <c r="C881" s="0" t="s">
-        <v>4028</v>
-      </c>
-      <c r="D881" s="0" t="s">
-        <v>4029</v>
-      </c>
-      <c r="E881" s="0" t="s">
-        <v>4033</v>
-      </c>
-      <c r="F881" s="0" t="s">
-        <v>4031</v>
       </c>
       <c r="G881" s="0" t="s">
         <v>26</v>
@@ -67022,7 +67025,7 @@
         <v>12</v>
       </c>
       <c r="L881" s="0" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="M881" s="0" t="s">
         <v>44</v>
@@ -67054,19 +67057,19 @@
         <v>8551</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="D882" s="0" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="E882" s="0" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="F882" s="0" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="G882" s="0" t="s">
         <v>26</v>
@@ -67084,7 +67087,7 @@
         <v>2</v>
       </c>
       <c r="L882" s="0" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="M882" s="0" t="s">
         <v>44</v>
@@ -67116,19 +67119,19 @@
         <v>9029</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="C883" s="0" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D883" s="0" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E883" s="0" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="F883" s="0" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="G883" s="0" t="s">
         <v>26</v>
@@ -67146,7 +67149,7 @@
         <v>18</v>
       </c>
       <c r="L883" s="0" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="M883" s="0" t="s">
         <v>147</v>
@@ -67178,19 +67181,19 @@
         <v>9030</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="C884" s="0" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D884" s="0" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E884" s="0" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="F884" s="0" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="G884" s="0" t="s">
         <v>26</v>
@@ -67208,7 +67211,7 @@
         <v>18</v>
       </c>
       <c r="L884" s="0" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="M884" s="0" t="s">
         <v>147</v>
@@ -67240,19 +67243,19 @@
         <v>9031</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="C885" s="0" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D885" s="0" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E885" s="0" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="F885" s="0" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="G885" s="0" t="s">
         <v>26</v>
@@ -67270,7 +67273,7 @@
         <v>15</v>
       </c>
       <c r="L885" s="0" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="M885" s="0" t="s">
         <v>44</v>
@@ -67302,19 +67305,19 @@
         <v>9032</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D886" s="0" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E886" s="0" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="G886" s="0" t="s">
         <v>26</v>
@@ -67332,7 +67335,7 @@
         <v>20</v>
       </c>
       <c r="L886" s="0" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="M886" s="0" t="s">
         <v>44</v>
@@ -67364,19 +67367,19 @@
         <v>9709</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="C887" s="0" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="D887" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E887" s="0" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="F887" s="0" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="G887" s="0" t="s">
         <v>26</v>
@@ -67423,31 +67426,31 @@
         <v>8300</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="C888" s="0" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="D888" s="0" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E888" s="0" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="F888" s="0" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="G888" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H888" s="0" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="I888" s="0" t="s">
         <v>663</v>
       </c>
       <c r="J888" s="0" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="K888" s="0">
         <v>2</v>
@@ -67485,25 +67488,25 @@
         <v>8747</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="C889" s="0" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="D889" s="0" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E889" s="0" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="F889" s="0" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="G889" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H889" s="0" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="I889" s="0" t="s">
         <v>70</v>
@@ -67515,7 +67518,7 @@
         <v>3</v>
       </c>
       <c r="L889" s="0" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
       <c r="M889" s="0" t="s">
         <v>44</v>
@@ -67547,25 +67550,25 @@
         <v>8546</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="C890" s="0" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="D890" s="0" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="E890" s="0" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="F890" s="0" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="G890" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H890" s="0" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="I890" s="0" t="s">
         <v>70</v>
@@ -67577,7 +67580,7 @@
         <v>7</v>
       </c>
       <c r="L890" s="0" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="M890" s="0" t="s">
         <v>85</v>
@@ -67609,25 +67612,25 @@
         <v>8489</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="C891" s="0" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="D891" s="0" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E891" s="0" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
       <c r="F891" s="0" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="G891" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H891" s="0" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="I891" s="0" t="s">
         <v>70</v>
@@ -67639,7 +67642,7 @@
         <v>12</v>
       </c>
       <c r="L891" s="0" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
       <c r="M891" s="0" t="s">
         <v>226</v>
@@ -67671,25 +67674,25 @@
         <v>8748</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="C892" s="0" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="D892" s="0" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="E892" s="0" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="F892" s="0" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="G892" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H892" s="0" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="I892" s="0" t="s">
         <v>70</v>
@@ -67733,19 +67736,19 @@
         <v>8610</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="C893" s="0" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="D893" s="0" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E893" s="0" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="F893" s="0" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="G893" s="0" t="s">
         <v>26</v>
@@ -67763,7 +67766,7 @@
         <v>14.4</v>
       </c>
       <c r="L893" s="0" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="M893" s="0" t="s">
         <v>147</v>
@@ -67795,7 +67798,7 @@
         <v>8434</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>1571</v>
@@ -67804,10 +67807,10 @@
         <v>1572</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="F894" s="0" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="G894" s="0" t="s">
         <v>26</v>
@@ -67825,7 +67828,7 @@
         <v>15</v>
       </c>
       <c r="L894" s="0" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
       <c r="M894" s="0" t="s">
         <v>44</v>
@@ -67857,7 +67860,7 @@
         <v>8436</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>1571</v>
@@ -67866,10 +67869,10 @@
         <v>1572</v>
       </c>
       <c r="E895" s="0" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="F895" s="0" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="G895" s="0" t="s">
         <v>26</v>
@@ -67887,7 +67890,7 @@
         <v>30</v>
       </c>
       <c r="L895" s="0" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="M895" s="0" t="s">
         <v>44</v>
@@ -67919,7 +67922,7 @@
         <v>8437</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="C896" s="0" t="s">
         <v>1571</v>
@@ -67928,10 +67931,10 @@
         <v>1572</v>
       </c>
       <c r="E896" s="0" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="F896" s="0" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="G896" s="0" t="s">
         <v>26</v>
@@ -67949,7 +67952,7 @@
         <v>11.8</v>
       </c>
       <c r="L896" s="0" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="M896" s="0" t="s">
         <v>44</v>
@@ -67981,7 +67984,7 @@
         <v>8438</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="C897" s="0" t="s">
         <v>1571</v>
@@ -67990,10 +67993,10 @@
         <v>1572</v>
       </c>
       <c r="E897" s="0" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="F897" s="0" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="G897" s="0" t="s">
         <v>26</v>
@@ -68011,7 +68014,7 @@
         <v>58</v>
       </c>
       <c r="L897" s="0" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="M897" s="0" t="s">
         <v>85</v>
@@ -68043,19 +68046,19 @@
         <v>8855</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="D898" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E898" s="0" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="F898" s="0" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="G898" s="0" t="s">
         <v>26</v>
@@ -68073,7 +68076,7 @@
         <v>15</v>
       </c>
       <c r="L898" s="0" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="M898" s="0" t="s">
         <v>85</v>
@@ -68105,25 +68108,25 @@
         <v>9051</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="C899" s="0" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D899" s="0" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E899" s="0" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="F899" s="0" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="G899" s="0" t="s">
         <v>699</v>
       </c>
       <c r="H899" s="0" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="I899" s="0" t="s">
         <v>701</v>
@@ -68135,7 +68138,7 @@
         <v>36</v>
       </c>
       <c r="L899" s="0" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="M899" s="0" t="s">
         <v>44</v>
@@ -68167,7 +68170,7 @@
         <v>8249</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>52</v>
@@ -68176,10 +68179,10 @@
         <v>53</v>
       </c>
       <c r="E900" s="0" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="G900" s="0" t="s">
         <v>26</v>
@@ -68197,7 +68200,7 @@
         <v>25</v>
       </c>
       <c r="L900" s="0" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="M900" s="0" t="s">
         <v>44</v>
@@ -68229,19 +68232,19 @@
         <v>9897</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="C901" s="0" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="D901" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E901" s="0" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="F901" s="0" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="G901" s="0" t="s">
         <v>26</v>
@@ -68288,7 +68291,7 @@
         <v>8870</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="C902" s="0" t="s">
         <v>1844</v>
@@ -68297,10 +68300,10 @@
         <v>1845</v>
       </c>
       <c r="E902" s="0" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
       <c r="F902" s="0" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="G902" s="0" t="s">
         <v>26</v>
@@ -68318,7 +68321,7 @@
         <v>28</v>
       </c>
       <c r="L902" s="0" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="M902" s="0" t="s">
         <v>226</v>
@@ -68350,19 +68353,19 @@
         <v>9753</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="D903" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E903" s="0" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="F903" s="0" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="G903" s="0" t="s">
         <v>26</v>
@@ -68409,19 +68412,19 @@
         <v>9849</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="D904" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E904" s="0" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="F904" s="0" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="G904" s="0" t="s">
         <v>26</v>
@@ -68468,25 +68471,25 @@
         <v>8951</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="C905" s="0" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="D905" s="0" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="E905" s="0" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="F905" s="0" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="G905" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H905" s="0" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="I905" s="0" t="s">
         <v>70</v>
@@ -68498,7 +68501,7 @@
         <v>14.8</v>
       </c>
       <c r="L905" s="0" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="M905" s="0" t="s">
         <v>44</v>
@@ -68530,7 +68533,7 @@
         <v>8204</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="C906" s="0" t="s">
         <v>52</v>
@@ -68539,10 +68542,10 @@
         <v>53</v>
       </c>
       <c r="E906" s="0" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="F906" s="0" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="G906" s="0" t="s">
         <v>26</v>
@@ -68560,7 +68563,7 @@
         <v>64.9</v>
       </c>
       <c r="L906" s="0" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="M906" s="0" t="s">
         <v>44</v>
@@ -68592,7 +68595,7 @@
         <v>8601</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="C907" s="0" t="s">
         <v>977</v>
@@ -68601,10 +68604,10 @@
         <v>978</v>
       </c>
       <c r="E907" s="0" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="F907" s="0" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="G907" s="0" t="s">
         <v>26</v>
@@ -68622,7 +68625,7 @@
         <v>21.9</v>
       </c>
       <c r="L907" s="0" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="M907" s="0" t="s">
         <v>44</v>
@@ -68654,7 +68657,7 @@
         <v>8602</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="C908" s="0" t="s">
         <v>977</v>
@@ -68663,10 +68666,10 @@
         <v>978</v>
       </c>
       <c r="E908" s="0" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="F908" s="0" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="G908" s="0" t="s">
         <v>26</v>
@@ -68684,7 +68687,7 @@
         <v>19.5</v>
       </c>
       <c r="L908" s="0" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="M908" s="0" t="s">
         <v>44</v>
@@ -68716,7 +68719,7 @@
         <v>9289</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="C909" s="0" t="s">
         <v>977</v>
@@ -68725,10 +68728,10 @@
         <v>978</v>
       </c>
       <c r="E909" s="0" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="F909" s="0" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="G909" s="0" t="s">
         <v>26</v>
@@ -68746,7 +68749,7 @@
         <v>17</v>
       </c>
       <c r="L909" s="0" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="M909" s="0" t="s">
         <v>85</v>
@@ -68778,19 +68781,19 @@
         <v>9446</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="C910" s="0" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="D910" s="0" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E910" s="0" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="F910" s="0" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="G910" s="0" t="s">
         <v>26</v>
@@ -68840,19 +68843,19 @@
         <v>9015</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="C911" s="0" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D911" s="0" t="s">
+        <v>4169</v>
+      </c>
+      <c r="E911" s="0" t="s">
+        <v>4166</v>
+      </c>
+      <c r="F911" s="0" t="s">
         <v>4167</v>
-      </c>
-      <c r="D911" s="0" t="s">
-        <v>4168</v>
-      </c>
-      <c r="E911" s="0" t="s">
-        <v>4165</v>
-      </c>
-      <c r="F911" s="0" t="s">
-        <v>4166</v>
       </c>
       <c r="G911" s="0" t="s">
         <v>26</v>
@@ -68902,19 +68905,19 @@
         <v>9447</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="C912" s="0" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="D912" s="0" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="E912" s="0" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="F912" s="0" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="G912" s="0" t="s">
         <v>26</v>
@@ -68964,19 +68967,19 @@
         <v>9016</v>
       </c>
       <c r="B913" s="0" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C913" s="0" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D913" s="0" t="s">
         <v>4169</v>
       </c>
-      <c r="C913" s="0" t="s">
-        <v>4167</v>
-      </c>
-      <c r="D913" s="0" t="s">
-        <v>4168</v>
-      </c>
       <c r="E913" s="0" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="F913" s="0" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="G913" s="0" t="s">
         <v>26</v>
@@ -69026,19 +69029,19 @@
         <v>9836</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="C914" s="0" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="D914" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E914" s="0" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="F914" s="0" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="G914" s="0" t="s">
         <v>26</v>
@@ -69056,7 +69059,7 @@
         <v>22</v>
       </c>
       <c r="L914" s="0" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="M914" s="0" t="s">
         <v>226</v>
@@ -69088,19 +69091,19 @@
         <v>9837</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="C915" s="0" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="D915" s="0" t="s">
         <v>199</v>
       </c>
       <c r="E915" s="0" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="F915" s="0" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="G915" s="0" t="s">
         <v>26</v>
@@ -69118,7 +69121,7 @@
         <v>15</v>
       </c>
       <c r="L915" s="0" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="M915" s="0" t="s">
         <v>226</v>
@@ -69150,7 +69153,7 @@
         <v>8539</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>1710</v>
@@ -69159,16 +69162,16 @@
         <v>1711</v>
       </c>
       <c r="E916" s="0" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="F916" s="0" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="G916" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H916" s="0" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="I916" s="0" t="s">
         <v>120</v>
@@ -69180,7 +69183,7 @@
         <v>18</v>
       </c>
       <c r="L916" s="0" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="M916" s="0" t="s">
         <v>44</v>
@@ -69212,7 +69215,7 @@
         <v>9157</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>1502</v>
@@ -69221,10 +69224,10 @@
         <v>1503</v>
       </c>
       <c r="E917" s="0" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="F917" s="0" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="G917" s="0" t="s">
         <v>26</v>
@@ -69242,7 +69245,7 @@
         <v>30</v>
       </c>
       <c r="L917" s="0" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="M917" s="0" t="s">
         <v>147</v>
@@ -69274,7 +69277,7 @@
         <v>9471</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>1502</v>
@@ -69283,10 +69286,10 @@
         <v>1503</v>
       </c>
       <c r="E918" s="0" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="F918" s="0" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="G918" s="0" t="s">
         <v>26</v>
@@ -69304,7 +69307,7 @@
         <v>31</v>
       </c>
       <c r="L918" s="0" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="M918" s="0" t="s">
         <v>147</v>
@@ -69336,7 +69339,7 @@
         <v>9156</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>1502</v>
@@ -69345,10 +69348,10 @@
         <v>1503</v>
       </c>
       <c r="E919" s="0" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
       <c r="F919" s="0" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="G919" s="0" t="s">
         <v>26</v>
@@ -69366,7 +69369,7 @@
         <v>25</v>
       </c>
       <c r="L919" s="0" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="M919" s="0" t="s">
         <v>85</v>
@@ -69398,7 +69401,7 @@
         <v>9158</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>1502</v>
@@ -69407,10 +69410,10 @@
         <v>1503</v>
       </c>
       <c r="E920" s="0" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="F920" s="0" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="G920" s="0" t="s">
         <v>26</v>
@@ -69428,7 +69431,7 @@
         <v>20</v>
       </c>
       <c r="L920" s="0" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="M920" s="0" t="s">
         <v>85</v>
@@ -69460,25 +69463,25 @@
         <v>9078</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="C921" s="0" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="D921" s="0" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E921" s="0" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="F921" s="0" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="G921" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H921" s="0" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="I921" s="0" t="s">
         <v>70</v>
@@ -69490,7 +69493,7 @@
         <v>8</v>
       </c>
       <c r="L921" s="0" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="M921" s="0" t="s">
         <v>44</v>
@@ -69522,7 +69525,7 @@
         <v>8269</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>1541</v>
@@ -69531,16 +69534,16 @@
         <v>53</v>
       </c>
       <c r="E922" s="0" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="F922" s="0" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="G922" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H922" s="0" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="I922" s="0" t="s">
         <v>57</v>
@@ -69552,7 +69555,7 @@
         <v>8.5</v>
       </c>
       <c r="L922" s="0" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="M922" s="0" t="s">
         <v>44</v>
@@ -69584,19 +69587,19 @@
         <v>8786</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D923" s="0" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E923" s="0" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="F923" s="0" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="G923" s="0" t="s">
         <v>26</v>
@@ -69614,7 +69617,7 @@
         <v>9.28</v>
       </c>
       <c r="L923" s="0" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="M923" s="0" t="s">
         <v>85</v>
@@ -69646,7 +69649,7 @@
         <v>9100</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>52</v>
@@ -69655,10 +69658,10 @@
         <v>53</v>
       </c>
       <c r="E924" s="0" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="F924" s="0" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="G924" s="0" t="s">
         <v>26</v>
@@ -69676,7 +69679,7 @@
         <v>35</v>
       </c>
       <c r="L924" s="0" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="M924" s="0" t="s">
         <v>147</v>
@@ -69708,7 +69711,7 @@
         <v>10041</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>1615</v>
@@ -69717,10 +69720,10 @@
         <v>199</v>
       </c>
       <c r="E925" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="F925" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>26</v>
@@ -69767,7 +69770,7 @@
         <v>8456</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>52</v>
@@ -69776,10 +69779,10 @@
         <v>53</v>
       </c>
       <c r="E926" s="0" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="F926" s="0" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="G926" s="0" t="s">
         <v>26</v>
@@ -69797,7 +69800,7 @@
         <v>45.15</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>44</v>
@@ -69829,7 +69832,7 @@
         <v>8457</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>52</v>
@@ -69838,10 +69841,10 @@
         <v>53</v>
       </c>
       <c r="E927" s="0" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="F927" s="0" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="G927" s="0" t="s">
         <v>26</v>
@@ -69859,7 +69862,7 @@
         <v>22.5</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="M927" s="0" t="s">
         <v>44</v>
@@ -69891,19 +69894,19 @@
         <v>8744</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="D928" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="E928" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="F928" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>699</v>
@@ -69921,7 +69924,7 @@
         <v>15.5</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>44</v>
@@ -69953,37 +69956,37 @@
         <v>8857</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="C929" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="D929" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E929" s="0" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="F929" s="0" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="G929" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H929" s="0" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="I929" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J929" s="0" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="K929" s="0">
         <v>23</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>147</v>
@@ -70015,19 +70018,19 @@
         <v>9357</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="D930" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="E930" s="0" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="F930" s="0" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="G930" s="0" t="s">
         <v>26</v>
@@ -70039,13 +70042,13 @@
         <v>120</v>
       </c>
       <c r="J930" s="0" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="K930" s="0">
         <v>19</v>
       </c>
       <c r="L930" s="0" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>44</v>
@@ -70077,7 +70080,7 @@
         <v>9534</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>52</v>
@@ -70086,10 +70089,10 @@
         <v>53</v>
       </c>
       <c r="E931" s="0" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="F931" s="0" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="G931" s="0" t="s">
         <v>26</v>
@@ -70107,7 +70110,7 @@
         <v>70</v>
       </c>
       <c r="L931" s="0" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="M931" s="0" t="s">
         <v>147</v>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:37:35</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:46:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:46:14</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 11:55:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 11:55:25</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:07:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:07:50</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:27:18</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5204,7 +5204,7 @@
     <t>CAETÉ</t>
   </si>
   <si>
-    <t>427.224,00</t>
+    <t>450.455,00</t>
   </si>
   <si>
     <t>Barragem Rio Fiorita</t>
@@ -9938,7 +9938,7 @@
     <t>-43°38'56.601"</t>
   </si>
   <si>
-    <t>313.332,00</t>
+    <t>321.659,00</t>
   </si>
   <si>
     <t>Monjolo</t>
@@ -53610,7 +53610,7 @@
         <v>1355</v>
       </c>
       <c r="K664" s="0">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="L664" s="0" t="s">
         <v>3131</v>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:27:18</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:38:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:38:12</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:46:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:46:44</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 12:55:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 12:55:51</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:13:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:13:04</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:38:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:38:24</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 01:52:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 01:52:57</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:01:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:01:21</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:19:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:19:22</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:30:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:30:54</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:39:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:39:52</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:48:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:48:39</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 02:57:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 02:57:26</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:16:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:16:03</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:33:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:33:31</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:45:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:45:08</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 03:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 03:53:55</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:02:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:02:46</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:18:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222822.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:18:46</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:28:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222822.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:28:02</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:36:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:36:42</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 04:45:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 04:54:39</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:03:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:03:24</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:24:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:24:05</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:32:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:32:45</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:41:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:41:47</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:51:15</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 05:59:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 05:59:38</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:15:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:15:34</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:26:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223622.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:26:45</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:36:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223622.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:36:27</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:45:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224522.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225422.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:45:06</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 06:54:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225422.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 06:54:22</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:03:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220322.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:03:03</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:22:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:22:23</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:32:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224222.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:32:50</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:42:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224222.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:42:03</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:51:03</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 07:59:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 07:59:37</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:17:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221722.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223122.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:17:47</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:31:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223122.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:31:22</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:40:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224022.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224922.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:40:25</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:49:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-22.xlsx
+++ b/sigbm_download_2022-12-22.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224922.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225722.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="4256">
   <si>
-    <t>Informação extraída do SIGBM: 22/12/2022 - 08:49:27</t>
+    <t>Informação extraída do SIGBM: 22/12/2022 - 08:57:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
